--- a/员工清单.xlsx
+++ b/员工清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="14540"/>
+    <workbookView windowWidth="30240" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
   <si>
     <t>人员名称</t>
   </si>
@@ -35,6 +35,9 @@
     <t>部门</t>
   </si>
   <si>
+    <t>上级主管</t>
+  </si>
+  <si>
     <t>胡旭冉</t>
   </si>
   <si>
@@ -62,12 +65,12 @@
     <t>研发部</t>
   </si>
   <si>
+    <t>蒋志远</t>
+  </si>
+  <si>
     <t>张晓行</t>
   </si>
   <si>
-    <t>蒋志远</t>
-  </si>
-  <si>
     <t>崔同同</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>陈旭</t>
   </si>
   <si>
+    <t>黄一波</t>
+  </si>
+  <si>
     <t>桑鹏鹏</t>
   </si>
   <si>
@@ -90,9 +96,6 @@
   </si>
   <si>
     <t>吉军</t>
-  </si>
-  <si>
-    <t>黄一波</t>
   </si>
   <si>
     <t>程文宝</t>
@@ -1282,84 +1285,108 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1367,191 +1394,242 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
